--- a/biology/Botanique/Jardin_botanique_national_Grandvaux_Barbosa/Jardin_botanique_national_Grandvaux_Barbosa.xlsx
+++ b/biology/Botanique/Jardin_botanique_national_Grandvaux_Barbosa/Jardin_botanique_national_Grandvaux_Barbosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jardin botanique national Grandvaux Barbosa est un jardin botanique du Cap-Vert situé à São Jorge dos Órgãos sur l'île de Santiago, à une trentaine de kilomètres au nord de Praia, la capitale. 
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aménagé à 400 m d'altitude, c'est une oasis de fraîcheur dans la montagne en été[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aménagé à 400 m d'altitude, c'est une oasis de fraîcheur dans la montagne en été.
 Créé en 1986, le jardin est rattaché à l'INIDA (Instituto Nacional de Investigação e Desenvolvimento Agrário), une composante de l'Université du Cap-Vert dont le siège est à Praia, la capitale.
-Il doit son nom au botaniste portugais Luis Augusto Grandvaux Barbosa (1914-1983)[2].
+Il doit son nom au botaniste portugais Luis Augusto Grandvaux Barbosa (1914-1983).
 Ses collections comprennent principalement des plantes endémiques ou indigènes du Cap-Vert, notamment : Phoenix atlantica, Euphorbia tuckeyana, Echium hypertropicum, Echium stenosiphon, Artemisia gorgonum, Micromeria forbesii, Aeonium gorgoneum, Campanula jacobaea, ainsi que diverses plantes ornementales, médicinales ou utiles en agriculture.
 </t>
         </is>
